--- a/biology/Écologie/Semaine_de_l'Environnement/Semaine_de_l'Environnement.xlsx
+++ b/biology/Écologie/Semaine_de_l'Environnement/Semaine_de_l'Environnement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Semaine_de_l%27Environnement</t>
+          <t>Semaine_de_l'Environnement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La semaine de l'Environnement est un festival qui sensibilise le public autour des questions environnementales. Il se tient chaque année au mois de mars dans plusieurs villes universitaires françaises.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Semaine_de_l%27Environnement</t>
+          <t>Semaine_de_l'Environnement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au travers de tables rondes, conférences, projections de films et forums, le débat est ouvert entre les participants et intervenants.
 La première édition de ce festival a eu lieu à Rennes en 2004 et chaque année, des associations étudiantes de toute la France rejoignent cette démarche.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Semaine_de_l%27Environnement</t>
+          <t>Semaine_de_l'Environnement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce festival a vu le jour à l'initiative d'étudiants soucieux de participer à la protection de l'environnement. C'est une manifestation qui a pour but d'informer, de sensibiliser et de mobiliser en premier lieu les étudiants mais également le grand public sur les notions d'écologie, de biodiversité, de changement climatique, d'empreinte écologique, d'agriculture biologique...
 En 1998, la Semaine de l'écologie a lieu sur le campus de Rennes 1 à l'initiative de l'association étudiante Ar Vuhez (association étudiante de sensibilisation à l'environnement).
